--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,6 @@
           <t>Mohammed Azar's Matching Attributes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Hamza Naeem Udin</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Hamza Naeem Udin's Matching Attributes</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Alisha Weys</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Alisha Weys's Matching Attributes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Obi Bineido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Obi Bineido's Matching Attributes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -501,62 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice Bens 220102345</t>
+          <t>A C 13242R455</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t xml:space="preserve">Current Entrepreneur; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alice Bens 220102345</t>
+          <t>A C 13242R455</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t xml:space="preserve">Current Entrepreneur; Both Mentee and Mentor Gender Pref. Met; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alice Bens 220102345</t>
+          <t>A C 13242R455</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Alice Bens 220102345</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Alice Bens 220102345</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Alice Bens 220102345</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t xml:space="preserve">Starting/Growing Business; Current Entrepreneur; </t>
         </is>
       </c>
     </row>
@@ -571,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gender, qualifications</t>
+          <t xml:space="preserve">Exploring Entrepreneurship; Only Mentee Gender Pref. Met; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -581,7 +521,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gender, qualifications</t>
+          <t xml:space="preserve">Exploring Entrepreneurship; Interviews; Only Mentor Gender Pref. Met; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -591,37 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gender, qualifications</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Neo Carter 190101089</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>gender, qualifications</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Neo Carter 190101089</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>gender, qualifications</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Neo Carter 190101089</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>gender, qualifications</t>
+          <t xml:space="preserve">Exploring Entrepreneurship; Only Mentee Gender Pref. Met; </t>
         </is>
       </c>
     </row>
@@ -636,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gender, industry, qualifications</t>
+          <t xml:space="preserve">Planning/Setting Goals; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -646,7 +556,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gender, industry, qualifications</t>
+          <t xml:space="preserve">Qualifications; Only Mentor Gender Pref. Met; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -654,41 +564,38 @@
           <t>Aishah Qureshi 200100227</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>gender, industry, qualifications</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Aishah Qureshi 200100227</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>gender, industry, qualifications</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Aishah Qureshi 200100227</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>gender, industry, qualifications</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Aishah Qureshi 200100227</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>gender, industry, qualifications</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice Bens 220102345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Planning/Setting Goals; </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alice Bens 220102345</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only Mentee Gender Pref. Met; </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alice Bens 220102345</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
